--- a/target/test-classes/com/test/LoginData.xlsx
+++ b/target/test-classes/com/test/LoginData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="16890" windowHeight="3000"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16560" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email_ID</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Hello@123</t>
+  </si>
+  <si>
+    <t>syed_hussain@hcl.com</t>
+  </si>
+  <si>
+    <t>hhhjjj</t>
   </si>
 </sst>
 </file>
@@ -388,9 +394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -414,13 +422,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/target/test-classes/com/test/LoginData.xlsx
+++ b/target/test-classes/com/test/LoginData.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16560" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16560" windowHeight="6420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="outPut" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:Q20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Email_ID</t>
   </si>
@@ -35,12 +36,37 @@
   </si>
   <si>
     <t>hhhjjj</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Heading 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Table cell</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -65,7 +91,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +102,16 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -95,10 +131,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -396,14 +434,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -463,4 +501,69 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="2.15234375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.01953125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>